--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3493411.471968425</v>
+        <v>3490867.662461342</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>136.6253230858983</v>
       </c>
       <c r="W2" t="n">
-        <v>66.67731766039428</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.4695742187181</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>22.25920201235004</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>79.63579206135022</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>11.54687212390062</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>72.36698404190614</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,22 +975,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>38.08911925464427</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>28.337088680934</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>2.214688090590209</v>
+        <v>161.480045948752</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824949</v>
+        <v>101.4926604386366</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465022</v>
+        <v>65.76608425465002</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>159.4775158380056</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614505</v>
+        <v>92.83909691614502</v>
       </c>
       <c r="I9" t="n">
-        <v>18.47335059662623</v>
+        <v>18.47335059663244</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0697045406877</v>
+        <v>192.0697045406876</v>
       </c>
       <c r="U9" t="n">
         <v>225.8092543744329</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>36.87724244867001</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>90.06308666747486</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>29.24923305751666</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>19.86507844888254</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>246.4755938422903</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3509,10 +3509,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>83.06560892428168</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>566.8162363079207</v>
+        <v>294.4202677165015</v>
       </c>
       <c r="C2" t="n">
-        <v>566.8162363079207</v>
+        <v>294.4202677165015</v>
       </c>
       <c r="D2" t="n">
-        <v>566.8162363079207</v>
+        <v>294.4202677165015</v>
       </c>
       <c r="E2" t="n">
-        <v>300.4385797407429</v>
+        <v>294.4202677165015</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356494</v>
+        <v>287.4747669672981</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917582</v>
+        <v>49.2826908791755</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052536</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515904</v>
+        <v>294.51749475159</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030597</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991306</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358402</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601762</v>
+        <v>1011.026904601761</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946887</v>
+        <v>900.5447187946875</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946887</v>
+        <v>686.1106626298155</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946887</v>
+        <v>432.4256445709443</v>
       </c>
       <c r="V2" t="n">
-        <v>900.5447187946887</v>
+        <v>294.4202677165015</v>
       </c>
       <c r="W2" t="n">
-        <v>833.1938928750985</v>
+        <v>294.4202677165015</v>
       </c>
       <c r="X2" t="n">
-        <v>566.8162363079207</v>
+        <v>294.4202677165015</v>
       </c>
       <c r="Y2" t="n">
-        <v>566.8162363079207</v>
+        <v>294.4202677165015</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.09711040012049</v>
+        <v>218.0341821179647</v>
       </c>
       <c r="C3" t="n">
-        <v>21.09711040012049</v>
+        <v>43.58115283683767</v>
       </c>
       <c r="D3" t="n">
-        <v>21.09711040012049</v>
+        <v>43.58115283683767</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>121.6535314649664</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>268.397955125263</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267537</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293586</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560883</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789492</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006024</v>
+        <v>1036.519636212813</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006024</v>
+        <v>887.883337816653</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006024</v>
+        <v>887.883337816653</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006024</v>
+        <v>887.883337816653</v>
       </c>
       <c r="V3" t="n">
-        <v>819.7034117742817</v>
+        <v>887.883337816653</v>
       </c>
       <c r="W3" t="n">
-        <v>565.4660550460801</v>
+        <v>633.6459810884514</v>
       </c>
       <c r="X3" t="n">
-        <v>357.6145548405473</v>
+        <v>425.7944808829186</v>
       </c>
       <c r="Y3" t="n">
-        <v>149.8542560755934</v>
+        <v>218.0341821179647</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>788.5075246042783</v>
+        <v>101.5373044014843</v>
       </c>
       <c r="C4" t="n">
-        <v>788.5075246042783</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="D4" t="n">
-        <v>638.3908851919425</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="E4" t="n">
-        <v>490.4777916095494</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="F4" t="n">
-        <v>343.5878441116391</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375332</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N4" t="n">
         <v>739.1822330227043</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075539</v>
+        <v>918.4699372075528</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816801</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006024</v>
+        <v>848.0684854165345</v>
       </c>
       <c r="T4" t="n">
-        <v>1043.192012810165</v>
+        <v>622.5994491745488</v>
       </c>
       <c r="U4" t="n">
-        <v>1043.192012810165</v>
+        <v>622.5994491745488</v>
       </c>
       <c r="V4" t="n">
-        <v>788.5075246042783</v>
+        <v>367.9149609686619</v>
       </c>
       <c r="W4" t="n">
-        <v>788.5075246042783</v>
+        <v>101.5373044014843</v>
       </c>
       <c r="X4" t="n">
-        <v>788.5075246042783</v>
+        <v>101.5373044014843</v>
       </c>
       <c r="Y4" t="n">
-        <v>788.5075246042783</v>
+        <v>101.5373044014843</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.3840804899464</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="E5" t="n">
         <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>34.06092317356494</v>
       </c>
       <c r="G5" t="n">
         <v>21.09711040012049</v>
@@ -4565,19 +4565,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.2826908791767</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052549</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030609</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O5" t="n">
         <v>888.5149683358413</v>
@@ -4586,31 +4586,31 @@
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946886</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946886</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>646.8597007358173</v>
       </c>
       <c r="V5" t="n">
-        <v>840.1393936243022</v>
+        <v>646.8597007358173</v>
       </c>
       <c r="W5" t="n">
+        <v>646.8597007358173</v>
+      </c>
+      <c r="X5" t="n">
         <v>573.7617370571243</v>
       </c>
-      <c r="X5" t="n">
-        <v>307.3840804899464</v>
-      </c>
       <c r="Y5" t="n">
-        <v>307.3840804899464</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>678.8798842210026</v>
+        <v>59.5709682330945</v>
       </c>
       <c r="C6" t="n">
-        <v>504.4268549398756</v>
+        <v>59.5709682330945</v>
       </c>
       <c r="D6" t="n">
-        <v>355.4924452786244</v>
+        <v>59.5709682330945</v>
       </c>
       <c r="E6" t="n">
-        <v>196.2549902731689</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>49.72043230005383</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>49.72043230005383</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
         <v>21.09711040012049</v>
@@ -4647,49 +4647,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267548</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560895</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166541</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>691.0742594480918</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>462.9384134849053</v>
       </c>
       <c r="V6" t="n">
-        <v>1054.855520006025</v>
+        <v>227.7863052531625</v>
       </c>
       <c r="W6" t="n">
-        <v>1054.855520006025</v>
+        <v>227.7863052531625</v>
       </c>
       <c r="X6" t="n">
-        <v>1054.855520006025</v>
+        <v>227.7863052531625</v>
       </c>
       <c r="Y6" t="n">
-        <v>847.0952212410707</v>
+        <v>227.7863052531625</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>650.177417354891</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C7" t="n">
-        <v>481.2412344269841</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>331.1245950146483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2115014322552</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407072</v>
       </c>
       <c r="S7" t="n">
-        <v>1052.618461328661</v>
+        <v>762.9518343167153</v>
       </c>
       <c r="T7" t="n">
-        <v>1052.618461328661</v>
+        <v>762.9518343167153</v>
       </c>
       <c r="U7" t="n">
-        <v>1052.618461328661</v>
+        <v>762.9518343167153</v>
       </c>
       <c r="V7" t="n">
-        <v>1052.618461328661</v>
+        <v>508.2673461108285</v>
       </c>
       <c r="W7" t="n">
-        <v>1052.618461328661</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X7" t="n">
-        <v>1052.618461328661</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y7" t="n">
-        <v>831.8258821851307</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1249.269430205405</v>
+        <v>981.8557524576311</v>
       </c>
       <c r="C8" t="n">
-        <v>880.306913264993</v>
+        <v>612.8932355172194</v>
       </c>
       <c r="D8" t="n">
-        <v>522.0412146582426</v>
+        <v>612.8932355172194</v>
       </c>
       <c r="E8" t="n">
-        <v>136.2529620599983</v>
+        <v>227.1049829189752</v>
       </c>
       <c r="F8" t="n">
-        <v>129.3074613107949</v>
+        <v>220.1594821697717</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6416433428661</v>
+        <v>117.641643342866</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428661</v>
+        <v>117.641643342866</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685575</v>
+        <v>51.21125520685587</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467175</v>
+        <v>187.3702251467184</v>
       </c>
       <c r="K8" t="n">
-        <v>442.175743760743</v>
+        <v>442.1757437607446</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045936</v>
+        <v>795.1862829045965</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995228</v>
+        <v>1219.647962995232</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209586</v>
+        <v>1655.591685209591</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940598</v>
+        <v>2053.905718940604</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550202</v>
+        <v>2359.356530550207</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661168</v>
+        <v>2540.564622661174</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342794</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342794</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342787</v>
+        <v>2351.810676439067</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342787</v>
+        <v>2098.229497964637</v>
       </c>
       <c r="V8" t="n">
-        <v>2560.562760342787</v>
+        <v>2098.229497964637</v>
       </c>
       <c r="W8" t="n">
-        <v>2399.474360506418</v>
+        <v>1745.460842694523</v>
       </c>
       <c r="X8" t="n">
-        <v>2026.008602245338</v>
+        <v>1371.995084433443</v>
       </c>
       <c r="Y8" t="n">
-        <v>1635.869270269526</v>
+        <v>981.8557524576311</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010823</v>
+        <v>929.5097208010886</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199553</v>
+        <v>755.0566915199616</v>
       </c>
       <c r="D9" t="n">
-        <v>606.122281858704</v>
+        <v>606.1222818587104</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532485</v>
+        <v>446.8848268532549</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801335</v>
+        <v>300.3502688801399</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763217</v>
+        <v>163.6480708763281</v>
       </c>
       <c r="H9" t="n">
-        <v>69.871205304458</v>
+        <v>69.8712053044644</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685575</v>
+        <v>51.21125520685587</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637191</v>
+        <v>113.4887579637194</v>
       </c>
       <c r="K9" t="n">
-        <v>559.9063389572714</v>
+        <v>298.0857543148194</v>
       </c>
       <c r="L9" t="n">
-        <v>854.4423223907531</v>
+        <v>931.8250374996609</v>
       </c>
       <c r="M9" t="n">
-        <v>1217.508790865055</v>
+        <v>1294.891505973963</v>
       </c>
       <c r="N9" t="n">
-        <v>1604.593193337625</v>
+        <v>1842.133061471875</v>
       </c>
       <c r="O9" t="n">
-        <v>1936.480003325014</v>
+        <v>2174.019871459265</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888885</v>
+        <v>2421.055229888891</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.27262844263</v>
+        <v>2536.272628442636</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342794</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251703</v>
+        <v>2424.826280251709</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685352</v>
+        <v>2230.816477685358</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751581</v>
+        <v>2002.726321751588</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519839</v>
+        <v>1767.574213519845</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791637</v>
+        <v>1513.336856791643</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586104</v>
+        <v>1305.485356586111</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.72505782115</v>
+        <v>1097.725057821157</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.2640775470984</v>
+        <v>535.0245104929824</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3278946191915</v>
+        <v>366.0883275650755</v>
       </c>
       <c r="D10" t="n">
-        <v>51.21125520685575</v>
+        <v>366.0883275650755</v>
       </c>
       <c r="E10" t="n">
-        <v>51.21125520685575</v>
+        <v>366.0883275650755</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685575</v>
+        <v>219.1983800671651</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685575</v>
+        <v>51.21125520685587</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685575</v>
+        <v>51.21125520685587</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685575</v>
+        <v>51.21125520685587</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380169</v>
+        <v>76.63468308380195</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676571</v>
+        <v>248.2500215676577</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368925</v>
+        <v>523.3850043368934</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904043</v>
+        <v>823.8653899904054</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.635640101615</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931092</v>
+        <v>1382.582027931094</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616501</v>
+        <v>1581.490387616504</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477364</v>
+        <v>1533.156055412624</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477364</v>
+        <v>1495.906315565483</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477364</v>
+        <v>1272.925014039888</v>
       </c>
       <c r="U10" t="n">
-        <v>1544.796330661733</v>
+        <v>983.8066405345298</v>
       </c>
       <c r="V10" t="n">
-        <v>1290.111842455846</v>
+        <v>983.8066405345298</v>
       </c>
       <c r="W10" t="n">
-        <v>1000.694672418886</v>
+        <v>983.8066405345298</v>
       </c>
       <c r="X10" t="n">
-        <v>772.7051215208683</v>
+        <v>755.8170896365125</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.9125423773381</v>
+        <v>535.0245104929824</v>
       </c>
     </row>
     <row r="11">
@@ -5036,43 +5036,43 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.04349261611</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>465.5282911402534</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>465.5282911402534</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961525</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1337.934786622704</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1965.532750177311</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>551.354624631591</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2417.418403724183</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2234.563569379087</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2014.962104402028</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1725.886877746226</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1471.202389540339</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1181.785219503378</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>953.7956686053609</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>733.0030894618308</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5516,22 +5516,22 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5747,16 +5747,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380886</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101817</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>422.7903292978459</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>422.7903292978459</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>422.7903292978459</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>255.5942300127259</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>113.8823988549239</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832229</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>634.927936255316</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.305163156993</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134626</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6932,31 +6932,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6977,7 +6977,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7020,22 +7020,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273902</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273902</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M39" t="n">
-        <v>692.9625378792909</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N39" t="n">
-        <v>1320.560501433898</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7403,52 +7403,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
         <v>3094.515198591808</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,25 +7546,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,13 +7679,13 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
         <v>3094.515198591809</v>
@@ -7725,16 +7725,16 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418308</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>26.133737672113</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.18793141915864</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127214</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8143,13 +8143,13 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094453</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658814</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418308</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127275</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8532,22 +8532,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.6295957084436</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>161.7749020457992</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>239.9392607416621</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>37.12601365260502</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>61.40075786968299</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>39.70888054695388</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,22 +25546,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,19 +25786,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>63.36835372228749</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>675045.1042194399</v>
+        <v>675045.1042194398</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>675045.1042194399</v>
+        <v>675045.1042194398</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>675045.1042194399</v>
+        <v>675045.1042194398</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>675045.10421944</v>
+        <v>675045.1042194398</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>675045.1042194398</v>
+        <v>675045.1042194399</v>
       </c>
     </row>
     <row r="15">
@@ -26314,31 +26314,31 @@
         <v>759463.6371244617</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244616</v>
+        <v>759463.6371244617</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.604713255</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="H2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="I2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="I2" t="n">
-        <v>746610.6047132555</v>
-      </c>
       <c r="J2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132552</v>
@@ -26350,10 +26350,10 @@
         <v>746610.6047132555</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.980591193</v>
+        <v>680087.9805911926</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580802</v>
+        <v>390680.0076580818</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606922</v>
+        <v>507909.2320606908</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911398</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101793</v>
+        <v>95270.23779101833</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954688</v>
+        <v>132717.9756954684</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249437.9663307044</v>
+        <v>249437.9663307045</v>
       </c>
       <c r="C4" t="n">
         <v>249437.9663307045</v>
       </c>
       <c r="D4" t="n">
-        <v>138058.0537608928</v>
+        <v>138058.0537608924</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768912</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768919</v>
+        <v>9947.144321768914</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768919</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
+        <v>9947.144321768897</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9947.144321768916</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9947.144321768897</v>
+      </c>
+      <c r="L4" t="n">
         <v>9947.14432176891</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9947.144321768897</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9947.144321768919</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9947.144321768912</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768941</v>
+        <v>9947.144321768857</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768919</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768919</v>
+        <v>9947.144321768872</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426617</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567906</v>
+        <v>92902.86757567918</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-233110.1130017018</v>
+        <v>-233110.1130017016</v>
       </c>
       <c r="C6" t="n">
-        <v>446977.867589491</v>
+        <v>446977.8675894911</v>
       </c>
       <c r="D6" t="n">
-        <v>137822.7081298106</v>
+        <v>137822.708129809</v>
       </c>
       <c r="E6" t="n">
-        <v>127631.6985068868</v>
+        <v>127596.9605814528</v>
       </c>
       <c r="F6" t="n">
-        <v>635540.9305675793</v>
+        <v>635506.1926421437</v>
       </c>
       <c r="G6" t="n">
-        <v>635540.9305675797</v>
+        <v>635506.1926421436</v>
       </c>
       <c r="H6" t="n">
-        <v>635540.9305675792</v>
+        <v>635506.1926421437</v>
       </c>
       <c r="I6" t="n">
-        <v>635540.9305675796</v>
+        <v>635506.1926421436</v>
       </c>
       <c r="J6" t="n">
-        <v>566541.7761484656</v>
+        <v>566507.0382230297</v>
       </c>
       <c r="K6" t="n">
-        <v>635540.9305675795</v>
+        <v>635506.1926421436</v>
       </c>
       <c r="L6" t="n">
-        <v>540270.6927765612</v>
+        <v>540235.9548511253</v>
       </c>
       <c r="M6" t="n">
-        <v>502822.9548721108</v>
+        <v>502788.2169466753</v>
       </c>
       <c r="N6" t="n">
-        <v>635540.9305675796</v>
+        <v>635506.1926421439</v>
       </c>
       <c r="O6" t="n">
-        <v>635540.9305675793</v>
+        <v>635506.1926421438</v>
       </c>
       <c r="P6" t="n">
-        <v>635540.9305675793</v>
+        <v>635506.1926421436</v>
       </c>
     </row>
   </sheetData>
@@ -26719,10 +26719,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.055013769478</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.055013769478</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627838</v>
+        <v>933.702459562785</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856969</v>
+        <v>640.1406900856985</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.055013769478</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933056</v>
+        <v>319.6474457933069</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788899</v>
+        <v>434.2730407788888</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841908</v>
+        <v>376.4268100841924</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139515</v>
+        <v>532.5675980139501</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841908</v>
+        <v>376.4268100841924</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139515</v>
+        <v>532.5675980139501</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841908</v>
+        <v>376.4268100841924</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139515</v>
+        <v>532.5675980139501</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707557</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402054</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442042</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>191.1269353842366</v>
       </c>
       <c r="W2" t="n">
-        <v>282.5636510570187</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.06360943114922</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>135.3858784430509</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27476,7 +27476,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27515,7 +27515,7 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>87.61102903727762</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>211.6674737556652</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.8091183350852</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619745</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707557</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>115.1832933522298</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>297.3641166365629</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,25 +27695,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>119.5559612007567</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>71.14223159027576</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27792,10 +27792,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>202.5044761530035</v>
+        <v>43.2391182948418</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -27831,10 +27831,10 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508492</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>310.0564993496129</v>
       </c>
       <c r="H8" t="n">
         <v>301.0334742203004</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>123.4854171348404</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>189.7634528794075</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.776449164526078</v>
+        <v>1.776449164519782</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2573199590395</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>157.7966078017144</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>196.1641031028295</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>9.28537247091299e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -30760,7 +30760,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O4" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O7" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75357772688556</v>
+        <v>3.753577726885565</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546676</v>
+        <v>38.4413278954668</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157557</v>
+        <v>144.7098053157559</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972536</v>
+        <v>318.580217597254</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763195</v>
+        <v>477.46916277632</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354936</v>
+        <v>592.3427171354942</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359946</v>
+        <v>659.0954050359954</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525082</v>
+        <v>669.7602577525091</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307899</v>
+        <v>632.4356192307907</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983025</v>
+        <v>539.7691690983032</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542133</v>
+        <v>405.3441667542138</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864753</v>
+        <v>235.7856768864756</v>
       </c>
       <c r="S8" t="n">
-        <v>85.5346524514048</v>
+        <v>85.5346524514049</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944155</v>
+        <v>16.43128649944157</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508448</v>
+        <v>0.3002862181508451</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436931</v>
+        <v>2.008341139436934</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035142</v>
+        <v>19.39634732035144</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026277</v>
+        <v>69.14683309026286</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079427</v>
+        <v>189.744195107943</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502171</v>
+        <v>324.3030514502175</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571284</v>
+        <v>436.065474157129</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617171</v>
+        <v>508.8678404617177</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152219</v>
+        <v>522.3360580152225</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519088</v>
+        <v>477.8354464519094</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947593</v>
+        <v>383.5050724947598</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463704</v>
+        <v>256.3629847463707</v>
       </c>
       <c r="R9" t="n">
-        <v>124.693320920479</v>
+        <v>124.6933209204791</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366403</v>
+        <v>37.30405581366407</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133943</v>
+        <v>8.095024154133954</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419034</v>
+        <v>0.1321277065419036</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752561</v>
+        <v>1.683725746752563</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840005</v>
+        <v>14.96985254840007</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415884</v>
+        <v>50.63422518415891</v>
       </c>
       <c r="J10" t="n">
-        <v>119.039410295406</v>
+        <v>119.0394102954062</v>
       </c>
       <c r="K10" t="n">
-        <v>195.618318577252</v>
+        <v>195.6183185772523</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490126</v>
+        <v>250.3240987490129</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023128</v>
+        <v>263.9316641023131</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462352</v>
+        <v>257.6559590462355</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046257</v>
+        <v>237.986981004626</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708733</v>
+        <v>203.6389757708735</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939803</v>
+        <v>140.9890713939805</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307421</v>
+        <v>75.70643221307431</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3427477865878</v>
+        <v>29.34274778658784</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942758</v>
+        <v>7.194100917942767</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650342</v>
+        <v>0.09183958618650354</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,10 +31835,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>543.0832917018711</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32081,7 +32081,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>463.4318227833011</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>669.466988500007</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>328.9038320421819</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>253.6713445157999</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -33035,13 +33035,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33260,16 +33260,16 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>446.0127311990643</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,28 +33500,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33740,13 +33740,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,31 +33968,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>344.6306853939244</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>687.0167715190038</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,19 +34445,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>732.4825987614915</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>101.5721424897434</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877685</v>
+        <v>28.61687799649633</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458913</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>181.0986910958066</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089031</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250133</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649633</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705674</v>
+        <v>137.5343130705677</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313389</v>
+        <v>257.3793117313395</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655063</v>
+        <v>356.576302165507</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087219</v>
+        <v>428.7491718087227</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559173</v>
+        <v>440.3471941559182</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091032</v>
+        <v>402.337407809104</v>
       </c>
       <c r="P8" t="n">
-        <v>308.536173343033</v>
+        <v>308.5361733430337</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797639</v>
+        <v>183.0384768797643</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234315</v>
+        <v>20.20013907234343</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127605</v>
+        <v>62.90656844127628</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884367</v>
+        <v>186.4616124758585</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772543</v>
+        <v>640.1406900856985</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396988</v>
+        <v>366.7338065396994</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318886</v>
+        <v>552.7692479776885</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074644</v>
+        <v>335.2392020074649</v>
       </c>
       <c r="P9" t="n">
-        <v>489.4699258220912</v>
+        <v>249.5306650804295</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603489</v>
+        <v>116.3812106603492</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783586</v>
+        <v>24.53548676783601</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873327</v>
+        <v>25.68023017873341</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513692</v>
+        <v>173.3488267513694</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093287</v>
+        <v>277.914124009329</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641534</v>
+        <v>303.5155410641536</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254638</v>
+        <v>301.7881314254641</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186653</v>
+        <v>262.5721089186657</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357667</v>
+        <v>200.917535035767</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228595</v>
+        <v>54.82702814228612</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924728</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>320.8355783388566</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>526.8707440555626</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>188.9220579561604</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>122.3296324324666</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36683,13 +36683,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>303.8786972770459</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>206.7892464195654</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>544.4205270745593</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243153</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38093,19 +38093,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394733</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
